--- a/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_10 2.链表.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_10 2.链表.xlsx
@@ -265,6 +265,272 @@
         <a:xfrm>
           <a:off x="2390775" y="13554075"/>
           <a:ext cx="7647619" cy="4028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>369649</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>65970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="17916525"/>
+          <a:ext cx="14609524" cy="5638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>94225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>655222</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>151637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="23754325"/>
+          <a:ext cx="13647322" cy="5200912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160556</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>161774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="28956000"/>
+          <a:ext cx="10952381" cy="1209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361301</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>85208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="31099125"/>
+          <a:ext cx="5190476" cy="4133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198025</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>113575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="30660975"/>
+          <a:ext cx="16000000" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>188931</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>8768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="36642675"/>
+          <a:ext cx="12552381" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>617671</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>85190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="43472100"/>
+          <a:ext cx="11628571" cy="4276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -565,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H70" workbookViewId="0">
-      <selection activeCell="T81" sqref="T81"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="Z254" sqref="Z253:Z254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_10 2.链表.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_10 2.链表.xlsx
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="Z254" sqref="Z253:Z254"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="Z253" sqref="Z253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_10 2.链表.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_10 2.链表.xlsx
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="Z253" sqref="Z253"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="W255" sqref="W255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
